--- a/3/main=3/3_main=3_SS.xlsx
+++ b/3/main=3/3_main=3_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/3/main=3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA4FF1-4938-F249-9383-BCEB1F711658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A38DA2-67B5-3140-AC71-3A01090A08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,17 +388,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,17 +406,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.620142857142859</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.503</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27.843142857142858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.58314285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,6 +633,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -771,6 +760,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -804,6 +794,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -860,6 +851,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot100_th1.8</a:t>
             </a:r>
           </a:p>
@@ -1538,6 +1530,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1571,6 +1564,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -1627,6 +1621,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -1753,6 +1748,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1786,6 +1782,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -1842,6 +1839,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot100_th2.5</a:t>
             </a:r>
           </a:p>
@@ -3120,6 +3118,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3153,6 +3152,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3209,6 +3209,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -3395,6 +3396,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3428,6 +3430,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3484,6 +3487,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot50_th0.1</a:t>
             </a:r>
           </a:p>
@@ -4162,6 +4166,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4195,6 +4200,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -4251,6 +4257,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -4377,6 +4384,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -4410,6 +4418,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -4466,6 +4475,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot50_th0.5</a:t>
             </a:r>
           </a:p>
@@ -5744,6 +5754,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -5777,6 +5788,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -5833,6 +5845,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -6019,6 +6032,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6052,6 +6066,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6108,6 +6123,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot50_th1.0</a:t>
             </a:r>
           </a:p>
@@ -6786,6 +6802,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6819,6 +6836,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6948,17 +6966,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6972,17 +6984,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.57957142857143</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.372714285714281</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36.504285714285707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.150571428571418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7205,6 +7211,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -7331,6 +7338,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -7364,6 +7372,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -13520,17 +13529,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13544,17 +13547,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.587142857142851</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.779285714285709</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38.964285714285722</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.76642857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16659,17 +16656,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16683,17 +16674,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.587142857142851</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.779285714285709</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>38.964285714285722</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.76642857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16752,17 +16737,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16776,17 +16755,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.57957142857143</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.372714285714281</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36.504285714285707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.150571428571418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16845,17 +16818,11 @@
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16869,17 +16836,11 @@
                 <c:pt idx="0">
                   <c:v>26.58971428571429</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.620142857142859</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>24.503</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27.843142857142858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.58314285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17242,6 +17203,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot100_th0.1</a:t>
             </a:r>
           </a:p>
@@ -17920,6 +17882,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -17953,6 +17916,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -18009,6 +17973,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -18135,6 +18100,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -18168,6 +18134,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -18224,6 +18191,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot100_th0.5</a:t>
             </a:r>
           </a:p>
@@ -19502,6 +19470,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -19535,6 +19504,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -19591,6 +19561,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -19777,6 +19748,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -19810,6 +19782,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -19866,6 +19839,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>3_mai3_c2_epot100_th1.0</a:t>
             </a:r>
           </a:p>
@@ -20544,6 +20518,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -20577,6 +20552,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -43238,8 +43214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6E689B-943D-FC44-A157-3E6B7AFC0D97}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -43272,15 +43248,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>27.620142857142859</v>
-      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5">
@@ -43305,15 +43273,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>31.58314285714286</v>
-      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
@@ -43327,15 +43287,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>70</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>27.57957142857143</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5">
@@ -43360,15 +43312,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>70</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C11" s="7">
-        <v>38.150571428571418</v>
-      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
@@ -43382,15 +43326,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
-        <v>100</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="7">
-        <v>27.587142857142851</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
@@ -43415,15 +43351,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
-        <v>100</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="7">
-        <v>38.76642857142857</v>
-      </c>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
@@ -44883,7 +44811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -47727,7 +47657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -49171,7 +49101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -50615,7 +50547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
